--- a/inferences/jesuita_entrada_Coimbra_places_of_stay_no_wikidata.xlsx
+++ b/inferences/jesuita_entrada_Coimbra_places_of_stay_no_wikidata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,40 +456,45 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>place.date_inferred.formatted</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>groupname</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>place.type</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>place.comment</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>place.original</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>place.date_is_inferred</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>place.line</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>place.extra_info</t>
         </is>
